--- a/Project/testdata/ELCData.xlsx
+++ b/Project/testdata/ELCData.xlsx
@@ -412,6 +412,31 @@
         <v>Puzzles</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>new-born-baby-gift-ideas</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Standard Delivery</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Home</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>soft-toys</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Brands</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Home</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Home</v>
+      </c>
+    </row>
     <row r="10">
       <c r="A10" t="str">
         <v>Cars</v>

--- a/Project/testdata/ELCData.xlsx
+++ b/Project/testdata/ELCData.xlsx
@@ -412,6 +412,31 @@
         <v>Puzzles</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Present Finder</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Creativity Toys</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Toddler Bikes</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Select Delivery</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Early Learning Centre Ready Mix Paint Set 6 Pack</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Select Delivery</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Huffy</v>
+      </c>
+    </row>
     <row r="10">
       <c r="A10" t="str">
         <v>Cars</v>

--- a/Project/testdata/ELCData.xlsx
+++ b/Project/testdata/ELCData.xlsx
@@ -412,6 +412,23 @@
         <v>Puzzles</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>https://www.elc.co.uk/brands/paw-patrol</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Narrow Your Results</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Available</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Add to Basket</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Brands</v>
+      </c>
+    </row>
     <row r="10">
       <c r="A10" t="str">
         <v>Cars</v>

--- a/Project/testdata/ELCData.xlsx
+++ b/Project/testdata/ELCData.xlsx
@@ -442,10 +442,10 @@
         <v>Cars</v>
       </c>
       <c r="B10" t="str">
-        <v>Toys</v>
+        <v>Toy</v>
       </c>
       <c r="C10" t="str">
-        <v>play</v>
+        <v>Imaginative</v>
       </c>
       <c r="D10" t="str">
         <v>Fine</v>
@@ -454,7 +454,7 @@
         <v>selected</v>
       </c>
       <c r="F10" t="str">
-        <v>wishlist</v>
+        <v>Wishlist</v>
       </c>
       <c r="G10" t="str">
         <v>Early Learning Centre</v>
@@ -471,7 +471,7 @@
         <v>https://www.elc.co.uk/product-safety-notices</v>
       </c>
       <c r="D11" t="str">
-        <v>https://theentertainer.zendesk.com/hc/en-gb/articles/4402417396241-Our-Returns-Policy</v>
+        <v>https://theentertainer.zendesk.com/hc/en-gb/articles/4402417396241-Returns</v>
       </c>
       <c r="E11" t="str">
         <v>https://www.elc.co.uk/login</v>

--- a/Project/testdata/ELCData.xlsx
+++ b/Project/testdata/ELCData.xlsx
@@ -434,10 +434,10 @@
         <v>Cars</v>
       </c>
       <c r="B10" t="str">
-        <v>Toys</v>
+        <v>Toy</v>
       </c>
       <c r="C10" t="str">
-        <v>play</v>
+        <v>Imaginative</v>
       </c>
       <c r="D10" t="str">
         <v>Fine</v>
@@ -446,7 +446,7 @@
         <v>selected</v>
       </c>
       <c r="F10" t="str">
-        <v>wishlist</v>
+        <v>Wishlist</v>
       </c>
       <c r="G10" t="str">
         <v>Early Learning Centre</v>
@@ -463,7 +463,7 @@
         <v>https://www.elc.co.uk/product-safety-notices</v>
       </c>
       <c r="D11" t="str">
-        <v>https://theentertainer.zendesk.com/hc/en-gb/articles/4402417396241-Our-Returns-Policy</v>
+        <v>https://theentertainer.zendesk.com/hc/en-gb/articles/4402417396241-Returns</v>
       </c>
       <c r="E11" t="str">
         <v>https://www.elc.co.uk/login</v>

--- a/Project/testdata/ELCData.xlsx
+++ b/Project/testdata/ELCData.xlsx
@@ -442,10 +442,10 @@
         <v>Cars</v>
       </c>
       <c r="B10" t="str">
-        <v>Toys</v>
+        <v>Toy</v>
       </c>
       <c r="C10" t="str">
-        <v>play</v>
+        <v>Imaginative</v>
       </c>
       <c r="D10" t="str">
         <v>Fine</v>
@@ -454,7 +454,7 @@
         <v>selected</v>
       </c>
       <c r="F10" t="str">
-        <v>wishlist</v>
+        <v>Wishlist</v>
       </c>
       <c r="G10" t="str">
         <v>Early Learning Centre</v>
@@ -471,7 +471,7 @@
         <v>https://www.elc.co.uk/product-safety-notices</v>
       </c>
       <c r="D11" t="str">
-        <v>https://theentertainer.zendesk.com/hc/en-gb/articles/4402417396241-Our-Returns-Policy</v>
+        <v>https://theentertainer.zendesk.com/hc/en-gb/articles/4402417396241-Our-Returns</v>
       </c>
       <c r="E11" t="str">
         <v>https://www.elc.co.uk/login</v>

--- a/Project/testdata/ELCData.xlsx
+++ b/Project/testdata/ELCData.xlsx
@@ -483,10 +483,10 @@
         <v>Cars</v>
       </c>
       <c r="B10" t="str">
-        <v>Toys</v>
+        <v>Toy</v>
       </c>
       <c r="C10" t="str">
-        <v>play</v>
+        <v>Imaginative</v>
       </c>
       <c r="D10" t="str">
         <v>Fine</v>
@@ -495,7 +495,7 @@
         <v>selected</v>
       </c>
       <c r="F10" t="str">
-        <v>wishlist</v>
+        <v>Wishlist</v>
       </c>
       <c r="G10" t="str">
         <v>Early Learning Centre</v>
@@ -512,7 +512,7 @@
         <v>https://www.elc.co.uk/product-safety-notices</v>
       </c>
       <c r="D11" t="str">
-        <v>https://theentertainer.zendesk.com/hc/en-gb/articles/4402417396241-Our-Returns-Policy</v>
+        <v>https://theentertainer.zendesk.com/hc/en-gb/articles/4402417396241-Returns</v>
       </c>
       <c r="E11" t="str">
         <v>https://www.elc.co.uk/login</v>
